--- a/Presentaciones/ICG/05 - DDA_Bresenham_MidPoint.xlsx
+++ b/Presentaciones/ICG/05 - DDA_Bresenham_MidPoint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Google Drive\UMNG\IntroCompuGraph\Presentaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repositorios\CompuGraph\Repositorio\Presentaciones\ICG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F4FB9BED-0481-4CCB-A861-59DE6A92CF79}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EA53B9-34D8-4281-9726-C36432FFA7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="0" windowWidth="14850" windowHeight="8490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M &gt;= 1" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Punto medio Circulo" sheetId="5" r:id="rId6"/>
     <sheet name="Scan line" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -414,13 +414,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,20 +705,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="4.54296875" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="1" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="11" width="5.81640625" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="5.81640625" customWidth="1"/>
-    <col min="15" max="15" width="6.7265625" customWidth="1"/>
-    <col min="17" max="27" width="3.26953125" customWidth="1"/>
+    <col min="9" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.85546875" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="17" max="27" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -769,7 +769,7 @@
       <c r="V1" s="4"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="V2" s="4"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H3">
         <v>1</v>
       </c>
@@ -871,7 +871,7 @@
       <c r="V3" s="4"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H4">
         <v>2</v>
       </c>
@@ -918,7 +918,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H5">
         <v>3</v>
       </c>
@@ -965,7 +965,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>4</v>
       </c>
@@ -1010,7 +1010,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>5</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>6</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>7</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>8</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>9</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>10</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>11</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H14">
         <v>12</v>
       </c>
@@ -1370,7 +1370,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>13</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>14</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q17">
         <v>0</v>
       </c>
@@ -1505,24 +1505,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="4.54296875" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="1" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="13" width="5.81640625" customWidth="1"/>
-    <col min="14" max="15" width="6.7265625" customWidth="1"/>
-    <col min="16" max="16" width="4.7265625" customWidth="1"/>
-    <col min="17" max="27" width="3.26953125" customWidth="1"/>
-    <col min="30" max="40" width="3.26953125" customWidth="1"/>
+    <col min="9" max="13" width="5.85546875" customWidth="1"/>
+    <col min="14" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" customWidth="1"/>
+    <col min="17" max="27" width="3.28515625" customWidth="1"/>
+    <col min="30" max="40" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="4"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H3">
         <v>1</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H4">
         <v>2</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H5">
         <v>3</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>4</v>
       </c>
@@ -1839,7 +1839,7 @@
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>5</v>
       </c>
@@ -1897,7 +1897,7 @@
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>6</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>7</v>
       </c>
@@ -2013,7 +2013,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2049,7 +2049,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2090,7 +2090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="Q12">
         <v>7</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>1</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
     </row>
-    <row r="17" spans="8:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:41" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>2</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
     </row>
-    <row r="18" spans="8:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:41" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>3</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="AM18" s="4"/>
       <c r="AN18" s="4"/>
     </row>
-    <row r="19" spans="8:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:41" x14ac:dyDescent="0.25">
       <c r="H19">
         <v>4</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="AM19" s="4"/>
       <c r="AN19" s="4"/>
     </row>
-    <row r="20" spans="8:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:41" x14ac:dyDescent="0.25">
       <c r="H20">
         <v>5</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="AM20" s="4"/>
       <c r="AN20" s="4"/>
     </row>
-    <row r="21" spans="8:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:41" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>6</v>
       </c>
@@ -2573,7 +2573,7 @@
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
     </row>
-    <row r="22" spans="8:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:41" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>7</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="AM22" s="4"/>
       <c r="AN22" s="4"/>
     </row>
-    <row r="23" spans="8:41" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:41" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>8</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="AM23" s="4"/>
       <c r="AN23" s="4"/>
     </row>
-    <row r="24" spans="8:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:41" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>9</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="8:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:41" x14ac:dyDescent="0.25">
       <c r="Q25">
         <v>5</v>
       </c>
@@ -2835,19 +2835,19 @@
       <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="4.54296875" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="1" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="12" width="5.81640625" customWidth="1"/>
-    <col min="14" max="24" width="3.26953125" customWidth="1"/>
-    <col min="25" max="25" width="4.7265625" customWidth="1"/>
-    <col min="26" max="47" width="3.26953125" customWidth="1"/>
+    <col min="9" max="12" width="5.85546875" customWidth="1"/>
+    <col min="14" max="24" width="3.28515625" customWidth="1"/>
+    <col min="25" max="25" width="4.7109375" customWidth="1"/>
+    <col min="26" max="47" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="AN1" s="4"/>
       <c r="AO1" s="4"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -2937,42 +2937,42 @@
         <v>2</v>
       </c>
       <c r="N2" s="4"/>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
       <c r="AJ2" s="4"/>
-      <c r="AK2" s="38" t="s">
+      <c r="AK2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="C3">
         <f>C2-A2</f>
         <v>10</v>
@@ -3024,7 +3024,7 @@
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H4">
         <v>2</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>17</v>
       </c>
@@ -3136,7 +3136,7 @@
       <c r="AT5" s="4"/>
       <c r="AU5" s="4"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="AT6" s="4"/>
       <c r="AU6" s="4"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>19</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="AT7" s="4"/>
       <c r="AU7" s="4"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>20</v>
       </c>
@@ -3311,9 +3311,9 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
       <c r="Y8">
         <v>11</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>16</v>
       </c>
@@ -3375,10 +3375,10 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
@@ -3408,7 +3408,7 @@
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>8</v>
       </c>
@@ -3432,9 +3432,9 @@
         <v>3</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -3468,7 +3468,7 @@
       <c r="AT10" s="4"/>
       <c r="AU10" s="4"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>9</v>
       </c>
@@ -3491,7 +3491,7 @@
       <c r="M11">
         <v>2</v>
       </c>
-      <c r="N11" s="40"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -3528,7 +3528,7 @@
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>10</v>
       </c>
@@ -3636,10 +3636,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -3694,7 +3694,7 @@
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -3729,16 +3729,16 @@
         <v>8</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="38" t="s">
+      <c r="O15" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Z15" s="4"/>
@@ -3754,7 +3754,7 @@
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>C15-A15</f>
         <v>8</v>
@@ -3820,7 +3820,7 @@
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>2</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="AT17" s="4"/>
       <c r="AU17" s="4"/>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>17</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="AT18" s="4"/>
       <c r="AU18" s="4"/>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>18</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="AT19" s="4"/>
       <c r="AU19" s="4"/>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>19</v>
       </c>
@@ -4076,7 +4076,7 @@
       <c r="AT20" s="4"/>
       <c r="AU20" s="4"/>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>20</v>
       </c>
@@ -4142,7 +4142,7 @@
       <c r="AT21" s="4"/>
       <c r="AU21" s="4"/>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>16</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="AT22" s="4"/>
       <c r="AU22" s="4"/>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>8</v>
       </c>
@@ -4266,7 +4266,7 @@
       <c r="AT23" s="4"/>
       <c r="AU23" s="4"/>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>9</v>
       </c>
@@ -4343,7 +4343,7 @@
       <c r="AT24" s="4"/>
       <c r="AU24" s="4"/>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H25">
         <v>10</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="AT25" s="4"/>
       <c r="AU25" s="4"/>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
@@ -4414,7 +4414,7 @@
       <c r="AT26" s="4"/>
       <c r="AU26" s="4"/>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
@@ -4443,6 +4443,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="O2:V2"/>
+    <mergeCell ref="AA2:AH2"/>
+    <mergeCell ref="AK2:AR2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A8:B8"/>
@@ -4451,12 +4457,6 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="O2:V2"/>
-    <mergeCell ref="AA2:AH2"/>
-    <mergeCell ref="AK2:AR2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4467,23 +4467,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X12" sqref="A1:X12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="H1:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="4.54296875" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="1" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="12" width="5.81640625" customWidth="1"/>
-    <col min="14" max="24" width="3.26953125" customWidth="1"/>
-    <col min="25" max="25" width="4.7265625" customWidth="1"/>
-    <col min="26" max="47" width="3.26953125" customWidth="1"/>
+    <col min="9" max="12" width="5.85546875" customWidth="1"/>
+    <col min="14" max="24" width="3.28515625" customWidth="1"/>
+    <col min="25" max="25" width="4.7109375" customWidth="1"/>
+    <col min="26" max="47" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="AN1" s="4"/>
       <c r="AO1" s="4"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="4">
-        <f t="shared" ref="J2:J9" si="0">IF(I2&lt;0,I2+$C$7,I2+$C$8)</f>
+        <f>IF(I2&lt;0,I2+$C$7,I2+$C$8)</f>
         <v>-4</v>
       </c>
       <c r="K2" s="1">
@@ -4574,42 +4574,42 @@
         <v>8</v>
       </c>
       <c r="N2" s="4"/>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
       <c r="AJ2" s="4"/>
-      <c r="AK2" s="38" t="s">
+      <c r="AK2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H3">
         <v>1</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>-4</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J2:J9" si="0">IF(I3&lt;0,I3+$C$7,I3+$C$8)</f>
         <v>6</v>
       </c>
       <c r="K3" s="2">
@@ -4626,8 +4626,8 @@
         <v>8</v>
       </c>
       <c r="L3" s="2">
-        <f>IF(I3&lt;0,L2,L2+1)</f>
-        <v>8</v>
+        <f>IF(I2&lt;0,L2,L2+1)</f>
+        <v>9</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -4653,7 +4653,7 @@
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H4">
         <v>2</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>9</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" ref="L4:L10" si="3">IF(I4&lt;0,L3,L3+1)</f>
+        <f t="shared" ref="L4:L10" si="3">IF(I3&lt;0,L3,L3+1)</f>
         <v>9</v>
       </c>
       <c r="M4">
@@ -4700,7 +4700,7 @@
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>17</v>
       </c>
@@ -4765,7 +4765,7 @@
       <c r="AT5" s="4"/>
       <c r="AU5" s="4"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="L6" s="2">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M6">
         <v>13</v>
@@ -4833,7 +4833,7 @@
       <c r="AT6" s="4"/>
       <c r="AU6" s="4"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>19</v>
       </c>
@@ -4901,7 +4901,7 @@
       <c r="AT7" s="4"/>
       <c r="AU7" s="4"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>20</v>
       </c>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="L8" s="2">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M8">
         <v>11</v>
@@ -4969,7 +4969,7 @@
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>16</v>
       </c>
@@ -5037,14 +5037,14 @@
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -5088,13 +5088,13 @@
       <c r="AT10" s="4"/>
       <c r="AU10" s="4"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H11" s="4"/>
       <c r="M11">
         <v>8</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -5130,7 +5130,7 @@
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H12" s="4"/>
       <c r="N12">
         <v>7</v>
@@ -5220,10 +5220,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
@@ -5238,7 +5238,7 @@
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
@@ -5253,7 +5253,7 @@
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
@@ -5281,7 +5281,7 @@
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
     </row>
-    <row r="17" spans="8:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:47" x14ac:dyDescent="0.25">
       <c r="H17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
@@ -5309,7 +5309,7 @@
       <c r="AT17" s="4"/>
       <c r="AU17" s="4"/>
     </row>
-    <row r="18" spans="8:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:47" x14ac:dyDescent="0.25">
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
@@ -5336,7 +5336,7 @@
       <c r="AT18" s="4"/>
       <c r="AU18" s="4"/>
     </row>
-    <row r="19" spans="8:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:47" x14ac:dyDescent="0.25">
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
@@ -5363,7 +5363,7 @@
       <c r="AT19" s="4"/>
       <c r="AU19" s="4"/>
     </row>
-    <row r="20" spans="8:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:47" x14ac:dyDescent="0.25">
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
@@ -5390,7 +5390,7 @@
       <c r="AT20" s="4"/>
       <c r="AU20" s="4"/>
     </row>
-    <row r="21" spans="8:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:47" x14ac:dyDescent="0.25">
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
@@ -5417,7 +5417,7 @@
       <c r="AT21" s="4"/>
       <c r="AU21" s="4"/>
     </row>
-    <row r="22" spans="8:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:47" x14ac:dyDescent="0.25">
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
@@ -5444,7 +5444,7 @@
       <c r="AT22" s="4"/>
       <c r="AU22" s="4"/>
     </row>
-    <row r="23" spans="8:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:47" x14ac:dyDescent="0.25">
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
@@ -5471,7 +5471,7 @@
       <c r="AT23" s="4"/>
       <c r="AU23" s="4"/>
     </row>
-    <row r="24" spans="8:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:47" x14ac:dyDescent="0.25">
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
@@ -5498,7 +5498,7 @@
       <c r="AT24" s="4"/>
       <c r="AU24" s="4"/>
     </row>
-    <row r="25" spans="8:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:47" x14ac:dyDescent="0.25">
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
@@ -5525,7 +5525,7 @@
       <c r="AT25" s="4"/>
       <c r="AU25" s="4"/>
     </row>
-    <row r="26" spans="8:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:47" x14ac:dyDescent="0.25">
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
@@ -5552,7 +5552,7 @@
       <c r="AT26" s="4"/>
       <c r="AU26" s="4"/>
     </row>
-    <row r="27" spans="8:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:47" x14ac:dyDescent="0.25">
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
@@ -5602,21 +5602,21 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="4.54296875" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="1" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="12" width="5.81640625" customWidth="1"/>
-    <col min="13" max="13" width="5.81640625" style="4" customWidth="1"/>
-    <col min="14" max="15" width="5.81640625" customWidth="1"/>
-    <col min="16" max="16" width="5.81640625" style="4" customWidth="1"/>
-    <col min="17" max="18" width="5.81640625" customWidth="1"/>
-    <col min="20" max="34" width="3.26953125" customWidth="1"/>
+    <col min="9" max="12" width="5.85546875" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="4" customWidth="1"/>
+    <col min="14" max="15" width="5.85546875" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" style="4" customWidth="1"/>
+    <col min="17" max="18" width="5.85546875" customWidth="1"/>
+    <col min="20" max="34" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -5701,7 +5701,7 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H3">
         <v>0</v>
       </c>
@@ -5738,23 +5738,23 @@
         <v>2</v>
       </c>
       <c r="T3" s="4"/>
-      <c r="U3" s="38" t="s">
+      <c r="U3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>28</v>
       </c>
@@ -5815,7 +5815,7 @@
       <c r="AG4" s="11"/>
       <c r="AH4" s="4"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5884,7 +5884,7 @@
       <c r="AG5" s="11"/>
       <c r="AH5" s="4"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>3</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="AG6" s="11"/>
       <c r="AH6" s="4"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
@@ -6009,7 +6009,7 @@
       <c r="AG7" s="11"/>
       <c r="AH7" s="4"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <f>A5</f>
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>6</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>16</v>
       </c>
@@ -6163,7 +6163,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>17</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>18</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>19</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>20</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -6260,7 +6260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="8:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H17" s="4"/>
       <c r="S17">
         <v>7</v>
@@ -6282,7 +6282,7 @@
       <c r="AA17" s="1"/>
       <c r="AH17" s="4"/>
     </row>
-    <row r="18" spans="8:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:34" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="S18">
         <v>6</v>
@@ -6294,7 +6294,7 @@
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
     </row>
-    <row r="19" spans="8:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:34" x14ac:dyDescent="0.25">
       <c r="S19">
         <v>5</v>
       </c>
@@ -6305,7 +6305,7 @@
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
     </row>
-    <row r="20" spans="8:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:34" x14ac:dyDescent="0.25">
       <c r="S20">
         <v>4</v>
       </c>
@@ -6325,7 +6325,7 @@
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
     </row>
-    <row r="21" spans="8:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:34" x14ac:dyDescent="0.25">
       <c r="S21">
         <v>3</v>
       </c>
@@ -6345,7 +6345,7 @@
       <c r="AG21" s="11"/>
       <c r="AH21" s="4"/>
     </row>
-    <row r="22" spans="8:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:34" x14ac:dyDescent="0.25">
       <c r="S22">
         <v>2</v>
       </c>
@@ -6365,7 +6365,7 @@
       <c r="AG22" s="11"/>
       <c r="AH22" s="4"/>
     </row>
-    <row r="23" spans="8:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:34" x14ac:dyDescent="0.25">
       <c r="S23">
         <v>1</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="AG23" s="11"/>
       <c r="AH23" s="4"/>
     </row>
-    <row r="24" spans="8:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:34" x14ac:dyDescent="0.25">
       <c r="S24">
         <v>0</v>
       </c>
@@ -6405,7 +6405,7 @@
       <c r="AG24" s="11"/>
       <c r="AH24" s="4"/>
     </row>
-    <row r="25" spans="8:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:34" x14ac:dyDescent="0.25">
       <c r="T25">
         <v>0</v>
       </c>
@@ -6450,7 +6450,7 @@
       </c>
       <c r="AH25" s="4"/>
     </row>
-    <row r="26" spans="8:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:34" x14ac:dyDescent="0.25">
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
@@ -6458,7 +6458,7 @@
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
     </row>
-    <row r="27" spans="8:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:34" x14ac:dyDescent="0.25">
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
@@ -6466,7 +6466,7 @@
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
     </row>
-    <row r="28" spans="8:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="8:34" x14ac:dyDescent="0.25">
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
@@ -6498,17 +6498,17 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="4.54296875" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="1" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="12" width="5.81640625" customWidth="1"/>
-    <col min="13" max="42" width="2.81640625" customWidth="1"/>
+    <col min="9" max="12" width="5.85546875" customWidth="1"/>
+    <col min="13" max="42" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>30</v>
       </c>
@@ -6557,7 +6557,7 @@
       <c r="AO1" s="16"/>
       <c r="AP1" s="16"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6610,7 +6610,7 @@
       <c r="AO2" s="16"/>
       <c r="AP2" s="16"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H3">
         <v>1</v>
       </c>
@@ -6654,7 +6654,7 @@
       <c r="AO3" s="15"/>
       <c r="AP3" s="15"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>2</v>
       </c>
@@ -6704,7 +6704,7 @@
       <c r="AO4" s="15"/>
       <c r="AP4" s="15"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -6754,7 +6754,7 @@
       <c r="AO5" s="15"/>
       <c r="AP5" s="15"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>4</v>
       </c>
@@ -6798,7 +6798,7 @@
       <c r="AO6" s="15"/>
       <c r="AP6" s="15"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>16</v>
       </c>
@@ -6845,7 +6845,7 @@
       <c r="AO7" s="15"/>
       <c r="AP7" s="15"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>5/4-C2</f>
         <v>-5.75</v>
@@ -6907,7 +6907,7 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -6935,7 +6935,7 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -6962,7 +6962,7 @@
       <c r="AO10" s="16"/>
       <c r="AP10" s="16"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -6989,7 +6989,7 @@
       <c r="AO11" s="16"/>
       <c r="AP11" s="16"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="H12" s="4"/>
@@ -7018,7 +7018,7 @@
       <c r="AO12" s="16"/>
       <c r="AP12" s="16"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="H13" s="4"/>
@@ -7047,7 +7047,7 @@
       <c r="AO13" s="16"/>
       <c r="AP13" s="16"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="H14" s="4"/>
@@ -7074,7 +7074,7 @@
       <c r="AO14" s="15"/>
       <c r="AP14" s="15"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="H15" s="4"/>
@@ -7095,7 +7095,7 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="H16" s="4"/>
@@ -7111,7 +7111,7 @@
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
     </row>
-    <row r="17" spans="8:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:42" x14ac:dyDescent="0.25">
       <c r="H17" s="4"/>
       <c r="M17" s="39" t="s">
         <v>47</v>
@@ -7143,7 +7143,7 @@
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
     </row>
-    <row r="18" spans="8:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:42" x14ac:dyDescent="0.25">
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
@@ -7151,7 +7151,7 @@
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
     </row>
-    <row r="19" spans="8:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:42" x14ac:dyDescent="0.25">
       <c r="N19" s="9" t="s">
         <v>33</v>
       </c>
@@ -7202,7 +7202,7 @@
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
     </row>
-    <row r="20" spans="8:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:42" x14ac:dyDescent="0.25">
       <c r="N20" s="6">
         <f>L2</f>
         <v>7</v>
@@ -7267,7 +7267,7 @@
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
     </row>
-    <row r="21" spans="8:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:42" x14ac:dyDescent="0.25">
       <c r="N21" s="6">
         <f>L3</f>
         <v>7</v>
@@ -7332,7 +7332,7 @@
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
     </row>
-    <row r="22" spans="8:42" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:42" x14ac:dyDescent="0.25">
       <c r="N22" s="6">
         <f>L4</f>
         <v>6</v>
@@ -7397,7 +7397,7 @@
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
     </row>
-    <row r="23" spans="8:42" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:42" x14ac:dyDescent="0.25">
       <c r="N23" s="6">
         <f>L5</f>
         <v>6</v>
@@ -7462,7 +7462,7 @@
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
     </row>
-    <row r="24" spans="8:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:42" x14ac:dyDescent="0.25">
       <c r="N24" s="6">
         <f>L6</f>
         <v>5</v>
@@ -7527,7 +7527,7 @@
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
     </row>
-    <row r="25" spans="8:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:42" x14ac:dyDescent="0.25">
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
@@ -7556,12 +7556,12 @@
       <selection activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="38" width="2.81640625" customWidth="1"/>
+    <col min="1" max="38" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -7598,7 +7598,7 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -7635,7 +7635,7 @@
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -7672,7 +7672,7 @@
       <c r="AI4" s="15"/>
       <c r="AJ4" s="15"/>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -7709,7 +7709,7 @@
       <c r="AI5" s="15"/>
       <c r="AJ5" s="15"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="27"/>
@@ -7746,7 +7746,7 @@
       <c r="AI6" s="27"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="27"/>
@@ -7783,7 +7783,7 @@
       <c r="AI7" s="27"/>
       <c r="AJ7" s="15"/>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="D8" s="27"/>
       <c r="E8" s="15"/>
@@ -7820,7 +7820,7 @@
       <c r="AI8" s="15"/>
       <c r="AJ8" s="27"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="D9" s="31">
         <v>-7</v>
@@ -7913,7 +7913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="D10" s="27"/>
       <c r="E10" s="15"/>
@@ -7950,7 +7950,7 @@
       <c r="AI10" s="15"/>
       <c r="AJ10" s="27"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D11" s="15"/>
       <c r="E11" s="27"/>
       <c r="F11" s="15"/>
@@ -7986,7 +7986,7 @@
       <c r="AI11" s="27"/>
       <c r="AJ11" s="15"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D12" s="15"/>
       <c r="E12" s="27"/>
       <c r="F12" s="15"/>
@@ -8020,7 +8020,7 @@
       <c r="AI12" s="27"/>
       <c r="AJ12" s="15"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="27"/>
@@ -8046,7 +8046,7 @@
       <c r="AD13" s="4"/>
       <c r="AJ13" s="15"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AJ14" s="15"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -8094,7 +8094,7 @@
       </c>
       <c r="AJ15" s="15"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -8112,14 +8112,14 @@
       </c>
       <c r="AJ16" s="4"/>
     </row>
-    <row r="17" spans="11:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="11:30" x14ac:dyDescent="0.25">
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="22" spans="11:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="11:30" x14ac:dyDescent="0.25">
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
@@ -8127,7 +8127,7 @@
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
     </row>
-    <row r="26" spans="11:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="11:30" x14ac:dyDescent="0.25">
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>

--- a/Presentaciones/ICG/05 - DDA_Bresenham_MidPoint.xlsx
+++ b/Presentaciones/ICG/05 - DDA_Bresenham_MidPoint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repositorios\CompuGraph\Repositorio\Presentaciones\ICG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EA53B9-34D8-4281-9726-C36432FFA7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A904B529-FD35-4078-9FA4-024A10322CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M &gt;= 1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Bresenham M &lt; 1 (2)" sheetId="7" r:id="rId3"/>
     <sheet name="Bresenham M &lt; 1" sheetId="3" r:id="rId4"/>
     <sheet name="Bresenham M &gt; 1" sheetId="4" r:id="rId5"/>
-    <sheet name="Punto medio Circulo" sheetId="5" r:id="rId6"/>
+    <sheet name="Circulo - Bressenham" sheetId="5" r:id="rId6"/>
     <sheet name="Scan line" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -227,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +324,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -361,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -421,6 +427,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4443,12 +4453,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="O2:V2"/>
-    <mergeCell ref="AA2:AH2"/>
-    <mergeCell ref="AK2:AR2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A8:B8"/>
@@ -4457,6 +4461,12 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="O2:V2"/>
+    <mergeCell ref="AA2:AH2"/>
+    <mergeCell ref="AK2:AR2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4467,8 +4477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="H1:L10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4558,7 +4568,7 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="1">
         <f>C9</f>
         <v>2</v>
       </c>
@@ -4618,14 +4628,14 @@
         <v>-4</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J2:J9" si="0">IF(I3&lt;0,I3+$C$7,I3+$C$8)</f>
+        <f t="shared" ref="J3:J9" si="0">IF(I3&lt;0,I3+$C$7,I3+$C$8)</f>
         <v>6</v>
       </c>
       <c r="K3" s="2">
         <f>K2+1</f>
         <v>8</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="42">
         <f>IF(I2&lt;0,L2,L2+1)</f>
         <v>9</v>
       </c>
@@ -4669,8 +4679,8 @@
         <f t="shared" ref="K4:K10" si="2">K3+1</f>
         <v>9</v>
       </c>
-      <c r="L4" s="2">
-        <f t="shared" ref="L4:L10" si="3">IF(I3&lt;0,L3,L3+1)</f>
+      <c r="L4" s="42">
+        <f t="shared" ref="L4:L9" si="3">IF(I3&lt;0,L3,L3+1)</f>
         <v>9</v>
       </c>
       <c r="M4">
@@ -4724,7 +4734,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="42">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -4789,7 +4799,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="42">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -4857,7 +4867,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="42">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -4925,7 +4935,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="42">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -4970,11 +4980,11 @@
       <c r="AU8" s="4"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9">
+      <c r="B9" s="41"/>
+      <c r="C9" s="1">
         <f>C7-C5</f>
         <v>2</v>
       </c>
@@ -4993,7 +5003,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="42">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -5045,7 +5055,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L4:L10" si="4">IF(I9&lt;0,L9,L9+1)</f>
         <v>13</v>
       </c>
       <c r="M10">
@@ -5225,6 +5235,20 @@
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
+      <c r="M14">
+        <v>-8</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
@@ -5240,6 +5264,20 @@
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
+      <c r="M15">
+        <v>-9</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
@@ -5255,6 +5293,18 @@
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
+      <c r="M16">
+        <v>-10</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
@@ -5283,6 +5333,18 @@
     </row>
     <row r="17" spans="8:47" x14ac:dyDescent="0.25">
       <c r="H17" s="4"/>
+      <c r="M17">
+        <v>-11</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
@@ -5310,6 +5372,18 @@
       <c r="AU17" s="4"/>
     </row>
     <row r="18" spans="8:47" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>-12</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
@@ -5337,6 +5411,18 @@
       <c r="AU18" s="4"/>
     </row>
     <row r="19" spans="8:47" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>-13</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="1"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
@@ -5364,6 +5450,18 @@
       <c r="AU19" s="4"/>
     </row>
     <row r="20" spans="8:47" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>-14</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
@@ -5391,6 +5489,18 @@
       <c r="AU20" s="4"/>
     </row>
     <row r="21" spans="8:47" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>-15</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
@@ -5418,8 +5528,39 @@
       <c r="AU21" s="4"/>
     </row>
     <row r="22" spans="8:47" x14ac:dyDescent="0.25">
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
+      <c r="N22">
+        <v>7</v>
+      </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22">
+        <v>9</v>
+      </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <v>11</v>
+      </c>
+      <c r="S22">
+        <v>12</v>
+      </c>
+      <c r="T22">
+        <v>13</v>
+      </c>
+      <c r="U22">
+        <v>14</v>
+      </c>
+      <c r="V22">
+        <v>15</v>
+      </c>
+      <c r="W22">
+        <v>16</v>
+      </c>
+      <c r="X22">
+        <v>17</v>
+      </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
@@ -6494,8 +6635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AP25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6538,14 +6679,13 @@
       <c r="Q1" s="15"/>
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="15"/>
+      <c r="U1" s="27"/>
       <c r="V1" s="27"/>
       <c r="W1" s="17">
         <v>7</v>
       </c>
       <c r="X1" s="17"/>
-      <c r="Y1" s="15"/>
+      <c r="Y1" s="17"/>
       <c r="Z1" s="15"/>
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
@@ -6590,17 +6730,16 @@
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
-      <c r="S2" s="16"/>
+      <c r="S2" s="27"/>
       <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
       <c r="V2" s="15"/>
       <c r="W2" s="15">
         <v>6</v>
       </c>
       <c r="X2" s="15"/>
-      <c r="Y2" s="17"/>
+      <c r="Y2" s="15"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="15"/>
+      <c r="AA2" s="17"/>
       <c r="AB2" s="15"/>
       <c r="AC2" s="15"/>
       <c r="AD2" s="15"/>
@@ -6627,14 +6766,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <f>IF(I3&lt;0,L2,L2-1)</f>
+        <f>IF(I2&lt;0,L2,L2-1)</f>
         <v>7</v>
       </c>
       <c r="N3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="27"/>
+      <c r="R3" s="27"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
@@ -6644,8 +6782,8 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="17"/>
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AL3" s="15"/>
@@ -6670,20 +6808,20 @@
       </c>
       <c r="J4" s="4">
         <f t="shared" ref="J4:J7" si="2">IF(I4&lt;0,I4+2*K4+2+1,I4+2*K4-2*L4-2)</f>
-        <v>-7.75</v>
+        <v>-9.75</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K7" si="3">K3+1</f>
         <v>2</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L7" si="4">IF(I4&lt;0,L3,L3-1)</f>
-        <v>6</v>
+        <f t="shared" ref="L4:L6" si="4">IF(I3&lt;0,L3,L3-1)</f>
+        <v>7</v>
       </c>
       <c r="N4" s="15"/>
       <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
@@ -6695,8 +6833,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="15"/>
+      <c r="AC4" s="19"/>
       <c r="AD4" s="15"/>
       <c r="AL4" s="15"/>
       <c r="AM4" s="15"/>
@@ -6716,11 +6853,11 @@
       </c>
       <c r="I5" s="5">
         <f t="shared" si="1"/>
-        <v>-7.75</v>
+        <v>-9.75</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
@@ -6760,11 +6897,11 @@
       </c>
       <c r="I6" s="5">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="2"/>
-        <v>-2.75</v>
+        <v>10.25</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="3"/>
@@ -6772,11 +6909,11 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
@@ -6790,8 +6927,8 @@
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
       <c r="AB6" s="15"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="19"/>
       <c r="AL6" s="15"/>
       <c r="AM6" s="15"/>
       <c r="AN6" s="15"/>
@@ -6807,18 +6944,18 @@
       </c>
       <c r="I7" s="5">
         <f t="shared" si="1"/>
-        <v>-2.75</v>
+        <v>10.25</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="2"/>
-        <v>10.25</v>
+        <v>8.25</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="L7" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="L4:L7" si="5">IF(I7&lt;0,L6,L6-1)</f>
         <v>5</v>
       </c>
       <c r="N7" s="15"/>
@@ -6856,7 +6993,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="N8" s="15"/>
-      <c r="P8" s="29">
+      <c r="P8" s="20">
         <v>-7</v>
       </c>
       <c r="Q8" s="15">
@@ -6939,8 +7076,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="28"/>
+      <c r="P10" s="28"/>
       <c r="R10" s="15"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
@@ -6954,8 +7090,7 @@
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
       <c r="AB10" s="15"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="15"/>
+      <c r="AD10" s="22"/>
       <c r="AL10" s="15"/>
       <c r="AM10" s="15"/>
       <c r="AN10" s="16"/>
@@ -6996,8 +7131,8 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
       <c r="U12" s="15"/>
@@ -7009,8 +7144,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="15"/>
+      <c r="AC12" s="22"/>
       <c r="AD12" s="15"/>
       <c r="AL12" s="15"/>
       <c r="AM12" s="15"/>
@@ -7026,8 +7160,7 @@
       <c r="J13" s="4"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="26"/>
+      <c r="R13" s="26"/>
       <c r="T13" s="16"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
@@ -7037,8 +7170,7 @@
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="15"/>
+      <c r="AB13" s="24"/>
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AL13" s="15"/>
@@ -7054,17 +7186,15 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
+      <c r="S14" s="26"/>
       <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15">
         <v>-6</v>
       </c>
       <c r="X14" s="15"/>
-      <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
-      <c r="AA14" s="15"/>
+      <c r="AA14" s="24"/>
       <c r="AB14" s="15"/>
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
@@ -7083,11 +7213,13 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
+      <c r="U15" s="26"/>
       <c r="V15" s="25"/>
       <c r="W15" s="24">
         <v>-7</v>
       </c>
       <c r="X15" s="23"/>
+      <c r="Y15" s="24"/>
       <c r="AD15" s="4"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
@@ -7237,11 +7369,11 @@
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="29">
-        <f t="shared" ref="Z20:AA24" si="5">K2*-1</f>
+        <f t="shared" ref="Z20:AA24" si="6">K2*-1</f>
         <v>0</v>
       </c>
       <c r="AA20" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
       <c r="AC20" s="4">
@@ -7302,11 +7434,11 @@
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="AA21" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
       <c r="AC21" s="30">
@@ -7335,7 +7467,7 @@
     <row r="22" spans="8:42" x14ac:dyDescent="0.25">
       <c r="N22" s="6">
         <f>L4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O22" s="6">
         <f>K4</f>
@@ -7343,7 +7475,7 @@
       </c>
       <c r="Q22" s="21">
         <f>L4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R22" s="21">
         <f>K4*-1</f>
@@ -7355,11 +7487,11 @@
       </c>
       <c r="U22" s="23">
         <f>L4*-1</f>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="W22" s="25">
         <f>L4*-1</f>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="X22" s="25">
         <f>K4*-1</f>
@@ -7367,16 +7499,16 @@
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="AA22" s="29">
-        <f t="shared" si="5"/>
-        <v>-6</v>
+        <f t="shared" si="6"/>
+        <v>-7</v>
       </c>
       <c r="AC22" s="30">
         <f>L4*-1</f>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="AD22" s="30">
         <f>K4</f>
@@ -7384,7 +7516,7 @@
       </c>
       <c r="AF22" s="31">
         <f>L4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG22" s="31">
         <f>K4*-1</f>
@@ -7432,11 +7564,11 @@
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="AA23" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
       <c r="AC23" s="30">
@@ -7465,7 +7597,7 @@
     <row r="24" spans="8:42" x14ac:dyDescent="0.25">
       <c r="N24" s="6">
         <f>L6</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O24" s="6">
         <f>K6</f>
@@ -7473,7 +7605,7 @@
       </c>
       <c r="Q24" s="21">
         <f>L6</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R24" s="21">
         <f>K6*-1</f>
@@ -7485,11 +7617,11 @@
       </c>
       <c r="U24">
         <f>L6*-1</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="W24" s="25">
         <f>L6*-1</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="X24" s="25">
         <f>K6*-1</f>
@@ -7497,16 +7629,16 @@
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
       <c r="AA24" s="29">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <f t="shared" si="6"/>
+        <v>-6</v>
       </c>
       <c r="AC24" s="30">
         <f>L6*-1</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="AD24" s="30">
         <f>K6</f>
@@ -7514,7 +7646,7 @@
       </c>
       <c r="AF24" s="31">
         <f>L6</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG24" s="31">
         <f>K6*-1</f>
